--- a/resources/data-imports/Items/alchemy-damage-increase.xlsx
+++ b/resources/data-imports/Items/alchemy-damage-increase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">alchemy_type</t>
+  </si>
+  <si>
     <t xml:space="preserve">specialty_type</t>
   </si>
   <si>
@@ -239,6 +242,9 @@
   </si>
   <si>
     <t xml:space="preserve">alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increase-damage</t>
   </si>
   <si>
     <t xml:space="preserve">Bottle the breathe of a dragon and use it to increase your own damage child.</t>
@@ -365,13 +371,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -395,80 +405,80 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BS10"/>
+  <dimension ref="A1:BT10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AI1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AN11" activeCellId="0" sqref="AN11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="19" style="1" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="8.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="25.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="26.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="21.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="8.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="38.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="21.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="26.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="26.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="1" width="21.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="1" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="1" width="26.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="1" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="33.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="5.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="20" style="1" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="26.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="21.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="29.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="28.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="28.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="38.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="21.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="26.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="1" width="26.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="21.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="1" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="1" width="26.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="1" width="16.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,6 +695,9 @@
       <c r="BS1" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -694,46 +707,46 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>100</v>
+      <c r="E2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="n">
         <v>100</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>0.15</v>
       </c>
-      <c r="X2" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="1" t="n">
+      <c r="Z2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="AE2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH2" s="1" t="n">
-        <v>0</v>
+      <c r="AF2" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI2" s="1" t="n">
         <v>0</v>
@@ -747,8 +760,8 @@
       <c r="AL2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN2" s="1" t="n">
-        <v>1</v>
+      <c r="AM2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO2" s="1" t="n">
         <v>1</v>
@@ -756,22 +769,22 @@
       <c r="AP2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR2" s="1" t="n">
-        <v>0</v>
+      <c r="AQ2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="AU2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="1" t="n">
+      <c r="AV2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AX2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ2" s="1" t="n">
+      <c r="AY2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA2" s="1" t="n">
@@ -792,7 +805,7 @@
       <c r="BF2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL2" s="1" t="n">
+      <c r="BG2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM2" s="1" t="n">
@@ -805,6 +818,9 @@
         <v>0</v>
       </c>
       <c r="BP2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -816,46 +832,46 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>430</v>
+      <c r="G3" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="M3" s="1" t="n">
         <v>430</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1" t="n">
         <v>0.2092</v>
       </c>
-      <c r="X3" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="Y3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="1" t="n">
+      <c r="Z3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="AD3" s="1" t="n">
+      <c r="AE3" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="AE3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH3" s="1" t="n">
-        <v>0</v>
+      <c r="AF3" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI3" s="1" t="n">
         <v>0</v>
@@ -869,8 +885,8 @@
       <c r="AL3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN3" s="1" t="n">
-        <v>1</v>
+      <c r="AM3" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO3" s="1" t="n">
         <v>1</v>
@@ -878,22 +894,22 @@
       <c r="AP3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR3" s="1" t="n">
-        <v>0</v>
+      <c r="AQ3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="AU3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="1" t="n">
+      <c r="AV3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AX3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ3" s="1" t="n">
+      <c r="AY3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA3" s="1" t="n">
@@ -914,7 +930,7 @@
       <c r="BF3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL3" s="1" t="n">
+      <c r="BG3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM3" s="1" t="n">
@@ -927,6 +943,9 @@
         <v>0</v>
       </c>
       <c r="BP3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -938,46 +957,46 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>1847</v>
+        <v>73</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="M4" s="1" t="n">
         <v>1847</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1" t="n">
+        <v>1847</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1" t="n">
         <v>0.2919</v>
       </c>
-      <c r="X4" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="Y4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="1" t="n">
+      <c r="Z4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="AD4" s="1" t="n">
+      <c r="AE4" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="AE4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH4" s="1" t="n">
-        <v>0</v>
+      <c r="AF4" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI4" s="1" t="n">
         <v>0</v>
@@ -991,8 +1010,8 @@
       <c r="AL4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN4" s="1" t="n">
-        <v>1</v>
+      <c r="AM4" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO4" s="1" t="n">
         <v>1</v>
@@ -1000,22 +1019,22 @@
       <c r="AP4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR4" s="1" t="n">
-        <v>0</v>
+      <c r="AQ4" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="AU4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="1" t="n">
+      <c r="AV4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AX4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ4" s="1" t="n">
+      <c r="AY4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA4" s="1" t="n">
@@ -1036,7 +1055,7 @@
       <c r="BF4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL4" s="1" t="n">
+      <c r="BG4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM4" s="1" t="n">
@@ -1049,6 +1068,9 @@
         <v>0</v>
       </c>
       <c r="BP4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1060,46 +1082,46 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>7938</v>
+        <v>73</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="M5" s="1" t="n">
         <v>7938</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1" t="n">
+        <v>7938</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1" t="n">
         <v>0.4072</v>
       </c>
-      <c r="X5" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="1" t="n">
+      <c r="Z5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="AD5" s="1" t="n">
+      <c r="AE5" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="AE5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH5" s="1" t="n">
-        <v>0</v>
+      <c r="AF5" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI5" s="1" t="n">
         <v>0</v>
@@ -1113,8 +1135,8 @@
       <c r="AL5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN5" s="1" t="n">
-        <v>1</v>
+      <c r="AM5" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO5" s="1" t="n">
         <v>1</v>
@@ -1122,22 +1144,22 @@
       <c r="AP5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR5" s="1" t="n">
-        <v>0</v>
+      <c r="AQ5" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="AU5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="1" t="n">
+      <c r="AV5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AX5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ5" s="1" t="n">
+      <c r="AY5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA5" s="1" t="n">
@@ -1158,7 +1180,7 @@
       <c r="BF5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL5" s="1" t="n">
+      <c r="BG5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM5" s="1" t="n">
@@ -1171,6 +1193,9 @@
         <v>0</v>
       </c>
       <c r="BP5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1182,46 +1207,46 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>34100</v>
+        <v>73</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="M6" s="1" t="n">
         <v>34100</v>
       </c>
       <c r="N6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1" t="n">
+        <v>34100</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1" t="n">
         <v>0.568</v>
       </c>
-      <c r="X6" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="Y6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="1" t="n">
+      <c r="Z6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="AD6" s="1" t="n">
+      <c r="AE6" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="AE6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH6" s="1" t="n">
-        <v>0</v>
+      <c r="AF6" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI6" s="1" t="n">
         <v>0</v>
@@ -1235,8 +1260,8 @@
       <c r="AL6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN6" s="1" t="n">
-        <v>1</v>
+      <c r="AM6" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO6" s="1" t="n">
         <v>1</v>
@@ -1244,22 +1269,22 @@
       <c r="AP6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR6" s="1" t="n">
-        <v>0</v>
+      <c r="AQ6" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="AU6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="1" t="n">
+      <c r="AV6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AX6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ6" s="1" t="n">
+      <c r="AY6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA6" s="1" t="n">
@@ -1280,7 +1305,7 @@
       <c r="BF6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL6" s="1" t="n">
+      <c r="BG6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM6" s="1" t="n">
@@ -1293,6 +1318,9 @@
         <v>0</v>
       </c>
       <c r="BP6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1304,46 +1332,46 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>154200</v>
+        <v>73</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="M7" s="1" t="n">
         <v>154200</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1" t="n">
+        <v>154200</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1" t="n">
         <v>0.8335</v>
       </c>
-      <c r="X7" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="Y7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="1" t="n">
+      <c r="Z7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="AD7" s="1" t="n">
+      <c r="AE7" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="AE7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH7" s="1" t="n">
-        <v>0</v>
+      <c r="AF7" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI7" s="1" t="n">
         <v>0</v>
@@ -1357,8 +1385,8 @@
       <c r="AL7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN7" s="1" t="n">
-        <v>1</v>
+      <c r="AM7" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO7" s="1" t="n">
         <v>1</v>
@@ -1366,22 +1394,22 @@
       <c r="AP7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR7" s="1" t="n">
-        <v>0</v>
+      <c r="AQ7" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="AU7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="1" t="n">
+      <c r="AV7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AX7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ7" s="1" t="n">
+      <c r="AY7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA7" s="1" t="n">
@@ -1402,7 +1430,7 @@
       <c r="BF7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL7" s="1" t="n">
+      <c r="BG7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM7" s="1" t="n">
@@ -1415,6 +1443,9 @@
         <v>0</v>
       </c>
       <c r="BP7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1426,46 +1457,46 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>669500</v>
+        <v>73</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="M8" s="1" t="n">
         <v>669500</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1" t="n">
+        <v>669500</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1" t="n">
         <v>1.1746</v>
       </c>
-      <c r="X8" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="1" t="n">
+      <c r="Z8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="AD8" s="1" t="n">
+      <c r="AE8" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="AE8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH8" s="1" t="n">
-        <v>0</v>
+      <c r="AF8" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI8" s="1" t="n">
         <v>0</v>
@@ -1479,8 +1510,8 @@
       <c r="AL8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN8" s="1" t="n">
-        <v>1</v>
+      <c r="AM8" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO8" s="1" t="n">
         <v>1</v>
@@ -1488,22 +1519,22 @@
       <c r="AP8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR8" s="1" t="n">
-        <v>0</v>
+      <c r="AQ8" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="AU8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="1" t="n">
+      <c r="AV8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AX8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ8" s="1" t="n">
+      <c r="AY8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA8" s="1" t="n">
@@ -1524,7 +1555,7 @@
       <c r="BF8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL8" s="1" t="n">
+      <c r="BG8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM8" s="1" t="n">
@@ -1537,6 +1568,9 @@
         <v>0</v>
       </c>
       <c r="BP8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1548,46 +1582,46 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L9" s="1" t="n">
-        <v>2906600</v>
+        <v>73</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="M9" s="1" t="n">
         <v>2906600</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1" t="n">
+        <v>2906600</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1" t="n">
         <v>1.6552</v>
       </c>
-      <c r="X9" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="Y9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="1" t="n">
+      <c r="Z9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="AD9" s="1" t="n">
+      <c r="AE9" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="AE9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH9" s="1" t="n">
-        <v>0</v>
+      <c r="AF9" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI9" s="1" t="n">
         <v>0</v>
@@ -1601,8 +1635,8 @@
       <c r="AL9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN9" s="1" t="n">
-        <v>1</v>
+      <c r="AM9" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO9" s="1" t="n">
         <v>1</v>
@@ -1610,22 +1644,22 @@
       <c r="AP9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR9" s="1" t="n">
-        <v>0</v>
+      <c r="AQ9" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="AU9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="1" t="n">
+      <c r="AV9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AX9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ9" s="1" t="n">
+      <c r="AY9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA9" s="1" t="n">
@@ -1646,7 +1680,7 @@
       <c r="BF9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL9" s="1" t="n">
+      <c r="BG9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM9" s="1" t="n">
@@ -1659,6 +1693,9 @@
         <v>0</v>
       </c>
       <c r="BP9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1670,46 +1707,46 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>12618600</v>
+        <v>73</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="n">
         <v>12618600</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1" t="n">
+        <v>12618600</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1" t="n">
         <v>2.05</v>
       </c>
-      <c r="X10" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="Y10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="1" t="n">
+      <c r="Z10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="AD10" s="1" t="n">
+      <c r="AE10" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="AE10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH10" s="1" t="n">
-        <v>0</v>
+      <c r="AF10" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI10" s="1" t="n">
         <v>0</v>
@@ -1723,8 +1760,8 @@
       <c r="AL10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN10" s="1" t="n">
-        <v>1</v>
+      <c r="AM10" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO10" s="1" t="n">
         <v>1</v>
@@ -1732,22 +1769,22 @@
       <c r="AP10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR10" s="1" t="n">
-        <v>0</v>
+      <c r="AQ10" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="AU10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="1" t="n">
+      <c r="AV10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AX10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ10" s="1" t="n">
+      <c r="AY10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA10" s="1" t="n">
@@ -1768,7 +1805,7 @@
       <c r="BF10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL10" s="1" t="n">
+      <c r="BG10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM10" s="1" t="n">
@@ -1781,6 +1818,9 @@
         <v>0</v>
       </c>
       <c r="BP10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="1" t="n">
         <v>0</v>
       </c>
     </row>
